--- a/results_final/ti_LM.xlsx
+++ b/results_final/ti_LM.xlsx
@@ -486,91 +486,91 @@
         <v>0.98</v>
       </c>
       <c r="D2">
-        <v>1.555796152068694</v>
+        <v>1.555934307191982</v>
       </c>
       <c r="E2">
-        <v>2.196263466494369</v>
+        <v>2.196942688864458</v>
       </c>
       <c r="F2">
-        <v>2.832013696591958</v>
+        <v>2.833895656486887</v>
       </c>
       <c r="G2">
-        <v>3.425953094738686</v>
+        <v>3.429879838464347</v>
       </c>
       <c r="H2">
-        <v>3.959007549649476</v>
+        <v>3.965897297953021</v>
       </c>
       <c r="I2">
-        <v>4.423384851381706</v>
+        <v>4.434129702481918</v>
       </c>
       <c r="J2">
-        <v>4.817833068861804</v>
+        <v>4.833204475112849</v>
       </c>
       <c r="K2">
-        <v>5.144288565351573</v>
+        <v>5.164853783834539</v>
       </c>
       <c r="L2">
-        <v>5.405880049497636</v>
+        <v>5.431942562213596</v>
       </c>
       <c r="M2">
-        <v>5.598181785482588</v>
+        <v>5.629739127883019</v>
       </c>
       <c r="N2">
-        <v>5.72571591890656</v>
+        <v>5.762400891624407</v>
       </c>
       <c r="O2">
-        <v>5.790904989699629</v>
+        <v>5.83190203947099</v>
       </c>
       <c r="P2">
-        <v>5.793898544413891</v>
+        <v>5.837834837208962</v>
       </c>
       <c r="Q2">
-        <v>5.747074197839431</v>
+        <v>5.792535391542358</v>
       </c>
       <c r="R2">
-        <v>5.672645068741514</v>
+        <v>5.718709968800684</v>
       </c>
       <c r="S2">
-        <v>5.585143251649837</v>
+        <v>5.631227585998886</v>
       </c>
       <c r="T2">
-        <v>5.493873851557919</v>
+        <v>5.539622666095537</v>
       </c>
       <c r="U2">
-        <v>5.404598101931279</v>
+        <v>5.449811363270618</v>
       </c>
       <c r="V2">
-        <v>5.320690529418901</v>
+        <v>5.365271549340568</v>
       </c>
       <c r="W2">
-        <v>5.243935663819294</v>
+        <v>5.287855316535992</v>
       </c>
       <c r="X2">
-        <v>5.175076516501234</v>
+        <v>5.218348459567654</v>
       </c>
       <c r="Y2">
-        <v>5.114191315908253</v>
+        <v>5.156854923390787</v>
       </c>
       <c r="Z2">
-        <v>5.060950959562292</v>
+        <v>5.103059683262748</v>
       </c>
       <c r="AA2">
-        <v>5.014793407993106</v>
+        <v>5.056406965797862</v>
       </c>
       <c r="AB2">
-        <v>4.97504020489444</v>
+        <v>5.016219464211964</v>
       </c>
       <c r="AC2">
-        <v>4.940972736836318</v>
+        <v>4.981776487063499</v>
       </c>
       <c r="AD2">
-        <v>4.911880607894708</v>
+        <v>4.952363645454322</v>
       </c>
       <c r="AE2">
-        <v>4.8870908486118</v>
+        <v>4.927302961733269</v>
       </c>
       <c r="AF2">
-        <v>4.869674976979806</v>
+        <v>4.90969990275002</v>
       </c>
     </row>
   </sheetData>
